--- a/src/main/resources/Data/TestData.xlsx
+++ b/src/main/resources/Data/TestData.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\amazonSearch\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD77D1ED-EA47-4C02-BE2F-761F22D7FC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789C8ED5-DE7E-40A6-B892-73D43E870EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13500" windowHeight="9360" xr2:uid="{96B76BC3-9BE2-49F1-80EE-71AF35C57EAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{96B76BC3-9BE2-49F1-80EE-71AF35C57EAA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Laptops" sheetId="1" r:id="rId1"/>
-    <sheet name="Phones" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>phones</t>
   </si>
@@ -95,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -104,19 +103,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -134,21 +120,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -163,19 +134,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -495,7 +460,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,10 +470,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -526,6 +491,22 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -535,47 +516,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCB8E62-9942-49F5-B747-757D4A7E66EE}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/main/resources/Data/TestData.xlsx
+++ b/src/main/resources/Data/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\amazonSearch\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789C8ED5-DE7E-40A6-B892-73D43E870EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20938BAE-C042-4A44-872B-E53B2E76BE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{96B76BC3-9BE2-49F1-80EE-71AF35C57EAA}"/>
+    <workbookView xWindow="10500" yWindow="1950" windowWidth="13500" windowHeight="9360" xr2:uid="{96B76BC3-9BE2-49F1-80EE-71AF35C57EAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/Data/TestData.xlsx
+++ b/src/main/resources/Data/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\amazonSearch\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20938BAE-C042-4A44-872B-E53B2E76BE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2834C584-A7A0-4312-90B9-DBEA1CEACDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10500" yWindow="1950" windowWidth="13500" windowHeight="9360" xr2:uid="{96B76BC3-9BE2-49F1-80EE-71AF35C57EAA}"/>
   </bookViews>
@@ -103,7 +103,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -119,9 +121,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -137,12 +137,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22614A39-EB91-43FB-B557-C60BB9C48839}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
@@ -469,15 +467,15 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -485,7 +483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -493,7 +491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -501,7 +499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -509,8 +507,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
